--- a/python-side/data/raw_data/genres.xlsx
+++ b/python-side/data/raw_data/genres.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fantasy</t>
+          <t>Romance</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Documentary</t>
+          <t>Action</t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>War</t>
+          <t>Drama</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Horror</t>
+          <t>Children</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Children</t>
+          <t>Adventure</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mystery</t>
+          <t>Animation</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thriller</t>
+          <t>IMAX</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>War</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Comedy</t>
+          <t>Thriller</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Comedy</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IMAX</t>
+          <t>Crime</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Western</t>
+          <t>Fantasy</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Adventure</t>
+          <t>Horror</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Crime</t>
+          <t>Documentary</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Film-Noir</t>
+          <t>Mystery</t>
         </is>
       </c>
     </row>
@@ -613,26 +613,6 @@
       <c r="B18" t="inlineStr">
         <is>
           <t>Sci-Fi</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Romance</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Animation</t>
         </is>
       </c>
     </row>

--- a/python-side/data/raw_data/genres.xlsx
+++ b/python-side/data/raw_data/genres.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,12 +437,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>genreId</t>
+          <t>genre_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>genreName</t>
+          <t>genre_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>genre_description</t>
         </is>
       </c>
     </row>
@@ -452,9 +457,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Romance</t>
-        </is>
-      </c>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -462,9 +468,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Action</t>
-        </is>
-      </c>
+          <t>War</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -472,9 +479,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Drama</t>
-        </is>
-      </c>
+          <t>Animation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -482,9 +490,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Children</t>
-        </is>
-      </c>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -492,9 +501,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Adventure</t>
-        </is>
-      </c>
+          <t>Horror</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -502,9 +512,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Animation</t>
-        </is>
-      </c>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -512,9 +523,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IMAX</t>
-        </is>
-      </c>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -522,9 +534,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>War</t>
-        </is>
-      </c>
+          <t>Musical</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -532,9 +545,10 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Thriller</t>
-        </is>
-      </c>
+          <t>Crime</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -542,9 +556,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Comedy</t>
-        </is>
-      </c>
+          <t>Documentary</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -552,9 +567,10 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Musical</t>
-        </is>
-      </c>
+          <t>Children</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -562,9 +578,10 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Crime</t>
-        </is>
-      </c>
+          <t>Thriller</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -572,9 +589,10 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fantasy</t>
-        </is>
-      </c>
+          <t>Romance</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -582,9 +600,10 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Horror</t>
-        </is>
-      </c>
+          <t>Mystery</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -592,9 +611,10 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Documentary</t>
-        </is>
-      </c>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -602,9 +622,10 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mystery</t>
-        </is>
-      </c>
+          <t>Fantasy</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -612,9 +633,10 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sci-Fi</t>
-        </is>
-      </c>
+          <t>IMAX</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/python-side/data/raw_data/genres.xlsx
+++ b/python-side/data/raw_data/genres.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -457,7 +457,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sci-Fi</t>
+          <t>Horror</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>War</t>
+          <t>Fantasy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Animation</t>
+          <t>Thriller</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Comedy</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Horror</t>
+          <t>Adventure</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>Romance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Adventure</t>
+          <t>IMAX</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -534,7 +534,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Musical</t>
+          <t>War</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -545,7 +545,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Crime</t>
+          <t>Musical</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Documentary</t>
+          <t>Children</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -567,7 +567,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Children</t>
+          <t>Animation</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Thriller</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Romance</t>
+          <t>Comedy</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mystery</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -611,7 +611,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Crime</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fantasy</t>
+          <t>Mystery</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -633,12 +633,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IMAX</t>
+          <t>Sci-Fi</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python-side/data/raw_data/genres.xlsx
+++ b/python-side/data/raw_data/genres.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Horror</t>
+          <t>Crime</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fantasy</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thriller</t>
+          <t>Fantasy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Comedy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Adventure</t>
+          <t>War</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Romance</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IMAX</t>
+          <t>Children</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -534,7 +534,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>War</t>
+          <t>Horror</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -545,7 +545,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Musical</t>
+          <t>Sci-Fi</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Children</t>
+          <t>IMAX</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -567,7 +567,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Animation</t>
+          <t>Film-Noir</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Comedy</t>
+          <t>Romance</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Documentary</t>
+          <t>Animation</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -611,7 +611,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Crime</t>
+          <t>Mystery</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mystery</t>
+          <t>Western</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -633,12 +633,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sci-Fi</t>
+          <t>Thriller</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Adventure</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Musical</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/python-side/data/raw_data/genres.xlsx
+++ b/python-side/data/raw_data/genres.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crime</t>
+          <t>Musical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>Film-Noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fantasy</t>
+          <t>Thriller</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Comedy</t>
+          <t>Horror</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>War</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Sci-Fi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -534,7 +534,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Horror</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -545,7 +545,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sci-Fi</t>
+          <t>Crime</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IMAX</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -567,7 +567,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Film-Noir</t>
+          <t>Western</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Documentary</t>
+          <t>Adventure</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Romance</t>
+          <t>War</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -611,7 +611,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mystery</t>
+          <t>Romance</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Western</t>
+          <t>Mystery</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Thriller</t>
+          <t>Comedy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -644,7 +644,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Adventure</t>
+          <t>IMAX</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -655,7 +655,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Musical</t>
+          <t>Fantasy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>

--- a/python-side/data/raw_data/genres.xlsx
+++ b/python-side/data/raw_data/genres.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Musical</t>
+          <t>Thriller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Film-Noir</t>
+          <t>Musical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thriller</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Horror</t>
+          <t>IMAX</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>Children</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sci-Fi</t>
+          <t>Mystery</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Children</t>
+          <t>Romance</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -534,7 +534,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Documentary</t>
+          <t>Horror</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -545,7 +545,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Crime</t>
+          <t>Film-Noir</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Drama</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -567,7 +567,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Western</t>
+          <t>Adventure</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Adventure</t>
+          <t>Drama</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>War</t>
+          <t>Western</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Animation</t>
+          <t>Comedy</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -611,7 +611,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Romance</t>
+          <t>Crime</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mystery</t>
+          <t>War</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Comedy</t>
+          <t>Fantasy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -644,7 +644,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IMAX</t>
+          <t>Sci-Fi</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -655,7 +655,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fantasy</t>
+          <t>Animation</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
